--- a/public/DataTest.xlsx
+++ b/public/DataTest.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="SheetTest1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nhập Kho" sheetId="1" r:id="rId1"/>
     <sheet name="SheetTest2" sheetId="2" r:id="rId2"/>
     <sheet name="SheetTest3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,19 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
-  <si>
-    <t>Col1</t>
-  </si>
-  <si>
-    <t>Col2</t>
-  </si>
-  <si>
-    <t>Col3</t>
-  </si>
-  <si>
-    <t>Col4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Data 1, 1</t>
   </si>
@@ -39,9 +27,6 @@
     <t>Data 1, 3</t>
   </si>
   <si>
-    <t>Data 1, 4</t>
-  </si>
-  <si>
     <t>Data 2, 1</t>
   </si>
   <si>
@@ -51,45 +36,15 @@
     <t>Data 2, 3</t>
   </si>
   <si>
-    <t>Data 2, 4</t>
-  </si>
-  <si>
     <t>Data 3, 1</t>
   </si>
   <si>
-    <t>Data 4, 1</t>
-  </si>
-  <si>
-    <t>Data 5, 1</t>
-  </si>
-  <si>
     <t>Data 3, 2</t>
   </si>
   <si>
     <t>Data 3, 3</t>
   </si>
   <si>
-    <t>Data 3, 4</t>
-  </si>
-  <si>
-    <t>Data 4, 2</t>
-  </si>
-  <si>
-    <t>Data 4, 3</t>
-  </si>
-  <si>
-    <t>Data 4, 4</t>
-  </si>
-  <si>
-    <t>Data 5, 2</t>
-  </si>
-  <si>
-    <t>Data 5, 3</t>
-  </si>
-  <si>
-    <t>Data 5, 4</t>
-  </si>
-  <si>
     <t>Col 1</t>
   </si>
   <si>
@@ -97,6 +52,60 @@
   </si>
   <si>
     <t>Col 3</t>
+  </si>
+  <si>
+    <t>Sản phẩm</t>
+  </si>
+  <si>
+    <t>Số lượng nhập</t>
+  </si>
+  <si>
+    <t>Giá nhập</t>
+  </si>
+  <si>
+    <t>Danh mục</t>
+  </si>
+  <si>
+    <t>Nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Chi nhánh</t>
+  </si>
+  <si>
+    <t>Sản phẩm 1</t>
+  </si>
+  <si>
+    <t>Sản phẩm 2</t>
+  </si>
+  <si>
+    <t>Sản phẩm 3</t>
+  </si>
+  <si>
+    <t>Sản phẩm 4</t>
+  </si>
+  <si>
+    <t>Sản phẩm 5</t>
+  </si>
+  <si>
+    <t>Sản phẩm 6</t>
+  </si>
+  <si>
+    <t>Sản phẩm 7</t>
+  </si>
+  <si>
+    <t>Sản phẩm 8</t>
+  </si>
+  <si>
+    <t>Sản phẩm 9</t>
+  </si>
+  <si>
+    <t>Danh mục 1</t>
+  </si>
+  <si>
+    <t>Nhà cung cấp 1</t>
+  </si>
+  <si>
+    <t>Chi nhánh 1</t>
   </si>
 </sst>
 </file>
@@ -449,100 +458,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2">
+        <v>5000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>10000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>50000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C6">
+        <v>100000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C7">
+        <v>500000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C8">
+        <v>5000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
+      <c r="C9">
+        <v>100000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>10000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -564,46 +694,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
